--- a/Assets/AssetsDevelop/ConfigExcels/WeaponsConfig.xlsx
+++ b/Assets/AssetsDevelop/ConfigExcels/WeaponsConfig.xlsx
@@ -665,8 +665,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,13 +983,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="19.9449541284404" customWidth="1"/>
     <col min="3" max="3" width="25.7981651376147" customWidth="1"/>
@@ -1083,6 +1086,9 @@
       <c r="C8">
         <v>1</v>
       </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/AssetsDevelop/ConfigExcels/WeaponsConfig.xlsx
+++ b/Assets/AssetsDevelop/ConfigExcels/WeaponsConfig.xlsx
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,112 +983,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="19.9449541284404" customWidth="1"/>
-    <col min="3" max="3" width="25.7981651376147" customWidth="1"/>
-    <col min="4" max="4" width="26.4220183486239" customWidth="1"/>
-    <col min="5" max="5" width="14.5779816513761" customWidth="1"/>
-    <col min="6" max="6" width="16.5688073394495" customWidth="1"/>
-    <col min="7" max="7" width="16.1192660550459" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.9449541284404" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7981651376147" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4220183486239" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5779816513761" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5688073394495" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1192660550459" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>50001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>50002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>500</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>50003</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>500</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>50004</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>500</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>50005</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>500</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
